--- a/Analyse/Gantt/Gantt Diagram.xlsx
+++ b/Analyse/Gantt/Gantt Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanguy\Documents\GitHub\DataEngineeringP3\Analyse\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DF965-5AF5-43E6-8432-33D8DADFFB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8577BAB-3DAF-4A8F-A1CD-065EF0F0CC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
   <si>
     <t>nummer van de taak</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Fase - Data Opslagen</t>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -233,6 +230,15 @@
   </si>
   <si>
     <t>UCD</t>
+  </si>
+  <si>
+    <t>FR &amp; NFR's</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +424,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -550,12 +562,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -611,25 +701,6 @@
     <xf numFmtId="9" fontId="11" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,9 +709,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1014,13 +1138,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CB983"/>
+  <dimension ref="A1:CB984"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="AQ11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="AY5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="BH23" sqref="BH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1040,137 +1164,137 @@
       </c>
     </row>
     <row r="2" spans="1:80" ht="23.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="49">
+      <c r="F2" s="54">
         <v>44830</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="47">
         <f>F2+7</f>
         <v>44837</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="43">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="47">
         <f t="shared" ref="P2" si="0">K2+7</f>
         <v>44844</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="47">
         <f t="shared" ref="U2" si="1">P2+7</f>
         <v>44851</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="43">
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="47">
         <f t="shared" ref="Z2" si="2">U2+7</f>
         <v>44858</v>
       </c>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="43">
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="47">
         <f t="shared" ref="AE2" si="3">Z2+7</f>
         <v>44865</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="43">
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="47">
         <f t="shared" ref="AJ2" si="4">AE2+7</f>
         <v>44872</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="43">
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="47">
         <f t="shared" ref="AO2" si="5">AJ2+7</f>
         <v>44879</v>
       </c>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="43">
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="47">
         <f t="shared" ref="AT2" si="6">AO2+7</f>
         <v>44886</v>
       </c>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43">
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47">
         <f t="shared" ref="AY2" si="7">AT2+7</f>
         <v>44893</v>
       </c>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43">
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47">
         <f t="shared" ref="BD2" si="8">AY2+7</f>
         <v>44900</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43">
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47">
         <f t="shared" ref="BI2" si="9">BD2+7</f>
         <v>44907</v>
       </c>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43">
+      <c r="BJ2" s="47"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="47"/>
+      <c r="BN2" s="47">
         <f t="shared" ref="BN2" si="10">BI2+7</f>
         <v>44914</v>
       </c>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43">
+      <c r="BO2" s="47"/>
+      <c r="BP2" s="47"/>
+      <c r="BQ2" s="47"/>
+      <c r="BR2" s="47"/>
+      <c r="BS2" s="47">
         <f t="shared" ref="BS2" si="11">BN2+7</f>
         <v>44921</v>
       </c>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
+      <c r="BT2" s="47"/>
+      <c r="BU2" s="47"/>
+      <c r="BV2" s="47"/>
+      <c r="BW2" s="47"/>
     </row>
     <row r="3" spans="1:80" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1393,8 +1517,8 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
@@ -1476,13 +1600,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="16">
         <v>44837</v>
       </c>
       <c r="E5" s="16">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="18"/>
@@ -1571,7 +1695,7 @@
         <v>44838</v>
       </c>
       <c r="E6" s="16">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
@@ -1650,17 +1774,17 @@
       <c r="CB6" s="1"/>
     </row>
     <row r="7" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="64">
         <v>44839</v>
       </c>
       <c r="E7" s="16">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
@@ -1711,8 +1835,8 @@
       <c r="AZ7" s="19"/>
       <c r="BA7" s="19"/>
       <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
       <c r="BE7" s="19"/>
       <c r="BF7" s="19"/>
       <c r="BG7" s="19"/>
@@ -1739,83 +1863,88 @@
       <c r="CB7" s="1"/>
     </row>
     <row r="8" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="22"/>
-      <c r="AU8" s="22"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-      <c r="AX8" s="22"/>
-      <c r="AY8" s="22"/>
-      <c r="AZ8" s="22"/>
-      <c r="BA8" s="22"/>
-      <c r="BB8" s="22"/>
-      <c r="BC8" s="22"/>
-      <c r="BD8" s="22"/>
-      <c r="BE8" s="22"/>
-      <c r="BF8" s="22"/>
-      <c r="BG8" s="22"/>
-      <c r="BH8" s="22"/>
-      <c r="BI8" s="22"/>
-      <c r="BJ8" s="22"/>
-      <c r="BK8" s="22"/>
-      <c r="BL8" s="22"/>
-      <c r="BM8" s="22"/>
-      <c r="BN8" s="22"/>
-      <c r="BO8" s="22"/>
-      <c r="BP8" s="22"/>
-      <c r="BQ8" s="22"/>
-      <c r="BR8" s="22"/>
-      <c r="BS8" s="22"/>
-      <c r="BT8" s="22"/>
-      <c r="BU8" s="22"/>
-      <c r="BV8" s="22"/>
-      <c r="BW8" s="22"/>
+      <c r="B8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="67">
+        <v>44897</v>
+      </c>
+      <c r="E8" s="66">
+        <v>44900</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="58"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="58"/>
+      <c r="AS8" s="58"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
+      <c r="BP8" s="57"/>
+      <c r="BQ8" s="57"/>
+      <c r="BR8" s="57"/>
+      <c r="BS8" s="57"/>
+      <c r="BT8" s="57"/>
+      <c r="BU8" s="57"/>
+      <c r="BV8" s="57"/>
+      <c r="BW8" s="57"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
       <c r="BZ8" s="1"/>
@@ -1823,88 +1952,83 @@
       <c r="CB8" s="1"/>
     </row>
     <row r="9" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="16">
-        <v>44840</v>
-      </c>
-      <c r="E9" s="16">
-        <v>44841</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19"/>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19"/>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19"/>
-      <c r="BW9" s="19"/>
+      <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22"/>
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22"/>
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22"/>
+      <c r="BW9" s="22"/>
       <c r="BX9" s="1"/>
       <c r="BY9" s="1"/>
       <c r="BZ9" s="1"/>
@@ -1916,13 +2040,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="16">
-        <v>44844</v>
+        <v>44840</v>
       </c>
       <c r="E10" s="16">
-        <v>44844</v>
+        <v>44841</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
@@ -1932,9 +2056,9 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="37"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -2005,13 +2129,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="16">
-        <v>44845</v>
+        <v>44844</v>
       </c>
       <c r="E11" s="16">
-        <v>44846</v>
+        <v>44844</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -2023,9 +2147,9 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
@@ -2094,13 +2218,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="16">
-        <v>44847</v>
+        <v>44845</v>
       </c>
       <c r="E12" s="16">
-        <v>44847</v>
+        <v>44846</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
@@ -2113,9 +2237,9 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
@@ -2183,84 +2307,84 @@
         <v>20</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="16">
-        <v>44848</v>
+        <v>44847</v>
       </c>
       <c r="E13" s="16">
-        <v>44848</v>
+        <v>44847</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
-      <c r="BL13" s="17"/>
-      <c r="BM13" s="17"/>
-      <c r="BN13" s="17"/>
-      <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
-      <c r="BR13" s="17"/>
-      <c r="BS13" s="17"/>
-      <c r="BT13" s="17"/>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="19"/>
+      <c r="BF13" s="19"/>
+      <c r="BG13" s="19"/>
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="19"/>
+      <c r="BJ13" s="19"/>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="19"/>
+      <c r="BM13" s="19"/>
+      <c r="BN13" s="19"/>
+      <c r="BO13" s="19"/>
+      <c r="BP13" s="19"/>
+      <c r="BQ13" s="19"/>
+      <c r="BR13" s="19"/>
+      <c r="BS13" s="19"/>
+      <c r="BT13" s="19"/>
+      <c r="BU13" s="19"/>
+      <c r="BV13" s="19"/>
+      <c r="BW13" s="19"/>
       <c r="BX13" s="1"/>
       <c r="BY13" s="1"/>
       <c r="BZ13" s="1"/>
@@ -2272,13 +2396,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="16">
-        <v>44851</v>
+        <v>44848</v>
       </c>
       <c r="E14" s="16">
-        <v>44851</v>
+        <v>44848</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -2294,8 +2418,8 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -2361,13 +2485,13 @@
         <v>27</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="16">
-        <v>44852</v>
+        <v>44851</v>
       </c>
       <c r="E15" s="16">
-        <v>44852</v>
+        <v>44851</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -2384,8 +2508,8 @@
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
@@ -2446,83 +2570,88 @@
       <c r="CB15" s="1"/>
     </row>
     <row r="16" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
-      <c r="AX16" s="22"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
-      <c r="BC16" s="22"/>
-      <c r="BD16" s="22"/>
-      <c r="BE16" s="22"/>
-      <c r="BF16" s="22"/>
-      <c r="BG16" s="22"/>
-      <c r="BH16" s="22"/>
-      <c r="BI16" s="22"/>
-      <c r="BJ16" s="22"/>
-      <c r="BK16" s="22"/>
-      <c r="BL16" s="22"/>
-      <c r="BM16" s="22"/>
-      <c r="BN16" s="22"/>
-      <c r="BO16" s="22"/>
-      <c r="BP16" s="22"/>
-      <c r="BQ16" s="22"/>
-      <c r="BR16" s="22"/>
-      <c r="BS16" s="22"/>
-      <c r="BT16" s="22"/>
-      <c r="BU16" s="22"/>
-      <c r="BV16" s="22"/>
-      <c r="BW16" s="22"/>
+      <c r="B16" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="16">
+        <v>44852</v>
+      </c>
+      <c r="E16" s="16">
+        <v>44852</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="17"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="17"/>
+      <c r="BF16" s="17"/>
+      <c r="BG16" s="17"/>
+      <c r="BH16" s="17"/>
+      <c r="BI16" s="17"/>
+      <c r="BJ16" s="17"/>
+      <c r="BK16" s="17"/>
+      <c r="BL16" s="17"/>
+      <c r="BM16" s="17"/>
+      <c r="BN16" s="17"/>
+      <c r="BO16" s="17"/>
+      <c r="BP16" s="17"/>
+      <c r="BQ16" s="17"/>
+      <c r="BR16" s="17"/>
+      <c r="BS16" s="17"/>
+      <c r="BT16" s="17"/>
+      <c r="BU16" s="17"/>
+      <c r="BV16" s="17"/>
+      <c r="BW16" s="17"/>
       <c r="BX16" s="1"/>
       <c r="BY16" s="1"/>
       <c r="BZ16" s="1"/>
@@ -2530,88 +2659,83 @@
       <c r="CB16" s="1"/>
     </row>
     <row r="17" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="16">
-        <v>44853</v>
-      </c>
-      <c r="E17" s="16">
-        <v>44853</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
-      <c r="BK17" s="19"/>
-      <c r="BL17" s="19"/>
-      <c r="BM17" s="19"/>
-      <c r="BN17" s="19"/>
-      <c r="BO17" s="19"/>
-      <c r="BP17" s="19"/>
-      <c r="BQ17" s="19"/>
-      <c r="BR17" s="19"/>
-      <c r="BS17" s="19"/>
-      <c r="BT17" s="19"/>
-      <c r="BU17" s="19"/>
-      <c r="BV17" s="19"/>
-      <c r="BW17" s="19"/>
+      <c r="A17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
+      <c r="BL17" s="22"/>
+      <c r="BM17" s="22"/>
+      <c r="BN17" s="22"/>
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="22"/>
+      <c r="BQ17" s="22"/>
+      <c r="BR17" s="22"/>
+      <c r="BS17" s="22"/>
+      <c r="BT17" s="22"/>
+      <c r="BU17" s="22"/>
+      <c r="BV17" s="22"/>
+      <c r="BW17" s="22"/>
       <c r="BX17" s="1"/>
       <c r="BY17" s="1"/>
       <c r="BZ17" s="1"/>
@@ -2623,13 +2747,13 @@
         <v>29</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D18" s="16">
-        <v>44854</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>64</v>
+        <v>44853</v>
+      </c>
+      <c r="E18" s="16">
+        <v>44853</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -2648,8 +2772,8 @@
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
@@ -2712,64 +2836,64 @@
         <v>2</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="16">
-        <v>44855</v>
-      </c>
-      <c r="E19" s="16">
-        <v>44916</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+        <v>44854</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="37"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="37"/>
-      <c r="BC19" s="37"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
       <c r="BD19" s="19"/>
       <c r="BE19" s="19"/>
       <c r="BF19" s="19"/>
@@ -2797,83 +2921,88 @@
       <c r="CB19" s="1"/>
     </row>
     <row r="20" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="22"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="22"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="23"/>
-      <c r="AV20" s="22"/>
-      <c r="AW20" s="23"/>
-      <c r="AX20" s="22"/>
-      <c r="AY20" s="23"/>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="23"/>
-      <c r="BB20" s="22"/>
-      <c r="BC20" s="23"/>
-      <c r="BD20" s="22"/>
-      <c r="BE20" s="23"/>
-      <c r="BF20" s="22"/>
-      <c r="BG20" s="23"/>
-      <c r="BH20" s="22"/>
-      <c r="BI20" s="23"/>
-      <c r="BJ20" s="22"/>
-      <c r="BK20" s="23"/>
-      <c r="BL20" s="22"/>
-      <c r="BM20" s="23"/>
-      <c r="BN20" s="22"/>
-      <c r="BO20" s="23"/>
-      <c r="BP20" s="22"/>
-      <c r="BQ20" s="23"/>
-      <c r="BR20" s="22"/>
-      <c r="BS20" s="23"/>
-      <c r="BT20" s="22"/>
-      <c r="BU20" s="23"/>
-      <c r="BV20" s="22"/>
-      <c r="BW20" s="23"/>
+      <c r="B20" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="16">
+        <v>44855</v>
+      </c>
+      <c r="E20" s="16">
+        <v>44923</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="19"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="19"/>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="19"/>
+      <c r="BQ20" s="19"/>
+      <c r="BR20" s="19"/>
+      <c r="BS20" s="19"/>
+      <c r="BT20" s="19"/>
+      <c r="BU20" s="19"/>
+      <c r="BV20" s="19"/>
+      <c r="BW20" s="19"/>
       <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
       <c r="BZ20" s="1"/>
@@ -2881,88 +3010,83 @@
       <c r="CB20" s="1"/>
     </row>
     <row r="21" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="16">
-        <v>44858</v>
-      </c>
-      <c r="E21" s="16">
-        <v>44859</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="19"/>
-      <c r="BE21" s="19"/>
-      <c r="BF21" s="19"/>
-      <c r="BG21" s="19"/>
-      <c r="BH21" s="19"/>
-      <c r="BI21" s="19"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="19"/>
-      <c r="BL21" s="19"/>
-      <c r="BM21" s="19"/>
-      <c r="BN21" s="19"/>
-      <c r="BO21" s="19"/>
-      <c r="BP21" s="19"/>
-      <c r="BQ21" s="19"/>
-      <c r="BR21" s="19"/>
-      <c r="BS21" s="19"/>
-      <c r="BT21" s="19"/>
-      <c r="BU21" s="19"/>
-      <c r="BV21" s="19"/>
-      <c r="BW21" s="19"/>
+      <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="23"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="23"/>
+      <c r="BL21" s="22"/>
+      <c r="BM21" s="23"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="23"/>
+      <c r="BP21" s="22"/>
+      <c r="BQ21" s="23"/>
+      <c r="BR21" s="22"/>
+      <c r="BS21" s="23"/>
+      <c r="BT21" s="22"/>
+      <c r="BU21" s="23"/>
+      <c r="BV21" s="22"/>
+      <c r="BW21" s="23"/>
       <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
       <c r="BZ21" s="1"/>
@@ -2971,16 +3095,16 @@
     </row>
     <row r="22" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="16">
-        <v>44880</v>
+        <v>44858</v>
       </c>
       <c r="E22" s="16">
-        <v>44893</v>
+        <v>44859</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -3002,8 +3126,8 @@
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
       <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
       <c r="AD22" s="19"/>
@@ -3018,16 +3142,16 @@
       <c r="AM22" s="19"/>
       <c r="AN22" s="19"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
       <c r="AZ22" s="19"/>
       <c r="BA22" s="19"/>
       <c r="BB22" s="19"/>
@@ -3059,83 +3183,88 @@
       <c r="CB22" s="1"/>
     </row>
     <row r="23" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="B23" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="13"/>
-      <c r="BK23" s="13"/>
-      <c r="BL23" s="13"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-      <c r="BO23" s="13"/>
-      <c r="BP23" s="13"/>
-      <c r="BQ23" s="13"/>
-      <c r="BR23" s="13"/>
-      <c r="BS23" s="13"/>
-      <c r="BT23" s="13"/>
-      <c r="BU23" s="13"/>
-      <c r="BV23" s="13"/>
-      <c r="BW23" s="13"/>
+      <c r="C23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="16">
+        <v>44880</v>
+      </c>
+      <c r="E23" s="16">
+        <v>44904</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="37"/>
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="37"/>
+      <c r="BG23" s="37"/>
+      <c r="BH23" s="37"/>
+      <c r="BI23" s="19"/>
+      <c r="BJ23" s="19"/>
+      <c r="BK23" s="19"/>
+      <c r="BL23" s="19"/>
+      <c r="BM23" s="19"/>
+      <c r="BN23" s="19"/>
+      <c r="BO23" s="19"/>
+      <c r="BP23" s="19"/>
+      <c r="BQ23" s="19"/>
+      <c r="BR23" s="19"/>
+      <c r="BS23" s="19"/>
+      <c r="BT23" s="19"/>
+      <c r="BU23" s="19"/>
+      <c r="BV23" s="19"/>
+      <c r="BW23" s="19"/>
       <c r="BX23" s="1"/>
       <c r="BY23" s="1"/>
       <c r="BZ23" s="1"/>
@@ -3143,88 +3272,83 @@
       <c r="CB23" s="1"/>
     </row>
     <row r="24" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="16">
-        <v>44860</v>
-      </c>
-      <c r="E24" s="16">
-        <v>44887</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="19"/>
-      <c r="BF24" s="19"/>
-      <c r="BG24" s="19"/>
-      <c r="BH24" s="19"/>
-      <c r="BI24" s="19"/>
-      <c r="BJ24" s="19"/>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="19"/>
-      <c r="BM24" s="19"/>
-      <c r="BN24" s="19"/>
-      <c r="BO24" s="19"/>
-      <c r="BP24" s="19"/>
-      <c r="BQ24" s="19"/>
-      <c r="BR24" s="19"/>
-      <c r="BS24" s="19"/>
-      <c r="BT24" s="19"/>
-      <c r="BU24" s="19"/>
-      <c r="BV24" s="19"/>
-      <c r="BW24" s="19"/>
+      <c r="A24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="13"/>
+      <c r="BQ24" s="13"/>
+      <c r="BR24" s="13"/>
+      <c r="BS24" s="13"/>
+      <c r="BT24" s="13"/>
+      <c r="BU24" s="13"/>
+      <c r="BV24" s="13"/>
+      <c r="BW24" s="13"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
       <c r="BZ24" s="1"/>
@@ -3232,17 +3356,17 @@
       <c r="CB24" s="1"/>
     </row>
     <row r="25" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="D25" s="16">
-        <v>44888</v>
+        <v>44860</v>
       </c>
       <c r="E25" s="16">
-        <v>44896</v>
+        <v>44904</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -3266,39 +3390,39 @@
       <c r="Y25" s="20"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="37"/>
-      <c r="AW25" s="37"/>
-      <c r="AX25" s="37"/>
-      <c r="AY25" s="37"/>
-      <c r="AZ25" s="37"/>
-      <c r="BA25" s="37"/>
-      <c r="BB25" s="37"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="35"/>
+      <c r="AP25" s="35"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="35"/>
+      <c r="AU25" s="35"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="35"/>
+      <c r="AX25" s="35"/>
+      <c r="AY25" s="35"/>
+      <c r="AZ25" s="35"/>
+      <c r="BA25" s="35"/>
+      <c r="BB25" s="35"/>
+      <c r="BC25" s="35"/>
+      <c r="BD25" s="35"/>
+      <c r="BE25" s="35"/>
+      <c r="BF25" s="35"/>
+      <c r="BG25" s="35"/>
+      <c r="BH25" s="35"/>
       <c r="BI25" s="19"/>
       <c r="BJ25" s="19"/>
       <c r="BK25" s="19"/>
@@ -3321,17 +3445,17 @@
       <c r="CB25" s="1"/>
     </row>
     <row r="26" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
-        <v>47</v>
+      <c r="B26" s="69" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="16">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="E26" s="16">
-        <v>44917</v>
+        <v>44904</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -3375,28 +3499,28 @@
       <c r="AS26" s="20"/>
       <c r="AT26" s="19"/>
       <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
       <c r="BC26" s="37"/>
       <c r="BD26" s="37"/>
       <c r="BE26" s="37"/>
       <c r="BF26" s="37"/>
       <c r="BG26" s="37"/>
       <c r="BH26" s="37"/>
-      <c r="BI26" s="37"/>
-      <c r="BJ26" s="37"/>
-      <c r="BK26" s="37"/>
-      <c r="BL26" s="37"/>
-      <c r="BM26" s="37"/>
-      <c r="BN26" s="37"/>
-      <c r="BO26" s="37"/>
-      <c r="BP26" s="37"/>
-      <c r="BQ26" s="37"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="19"/>
+      <c r="BL26" s="19"/>
+      <c r="BM26" s="19"/>
+      <c r="BN26" s="19"/>
+      <c r="BO26" s="19"/>
+      <c r="BP26" s="19"/>
+      <c r="BQ26" s="19"/>
       <c r="BR26" s="19"/>
       <c r="BS26" s="19"/>
       <c r="BT26" s="19"/>
@@ -3410,83 +3534,88 @@
       <c r="CB26" s="1"/>
     </row>
     <row r="27" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
-      <c r="BE27" s="13"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="13"/>
-      <c r="BH27" s="13"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="13"/>
-      <c r="BK27" s="13"/>
-      <c r="BL27" s="13"/>
-      <c r="BM27" s="13"/>
-      <c r="BN27" s="13"/>
-      <c r="BO27" s="13"/>
-      <c r="BP27" s="13"/>
-      <c r="BQ27" s="13"/>
-      <c r="BR27" s="13"/>
-      <c r="BS27" s="13"/>
-      <c r="BT27" s="13"/>
-      <c r="BU27" s="13"/>
-      <c r="BV27" s="13"/>
-      <c r="BW27" s="13"/>
+      <c r="C27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="16">
+        <v>44897</v>
+      </c>
+      <c r="E27" s="16">
+        <v>44918</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="37"/>
+      <c r="BD27" s="37"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="37"/>
+      <c r="BG27" s="37"/>
+      <c r="BH27" s="37"/>
+      <c r="BI27" s="37"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="37"/>
+      <c r="BL27" s="37"/>
+      <c r="BM27" s="37"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="37"/>
+      <c r="BP27" s="37"/>
+      <c r="BQ27" s="37"/>
+      <c r="BR27" s="19"/>
+      <c r="BS27" s="19"/>
+      <c r="BT27" s="19"/>
+      <c r="BU27" s="19"/>
+      <c r="BV27" s="19"/>
+      <c r="BW27" s="19"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
       <c r="BZ27" s="1"/>
@@ -3494,88 +3623,83 @@
       <c r="CB27" s="1"/>
     </row>
     <row r="28" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="16">
-        <v>44894</v>
-      </c>
-      <c r="E28" s="16">
-        <v>44900</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="21"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="19"/>
-      <c r="BF28" s="19"/>
-      <c r="BG28" s="19"/>
-      <c r="BH28" s="19"/>
-      <c r="BI28" s="19"/>
-      <c r="BJ28" s="19"/>
-      <c r="BK28" s="19"/>
-      <c r="BL28" s="19"/>
-      <c r="BM28" s="19"/>
-      <c r="BN28" s="19"/>
-      <c r="BO28" s="19"/>
-      <c r="BP28" s="19"/>
-      <c r="BQ28" s="19"/>
-      <c r="BR28" s="19"/>
-      <c r="BS28" s="19"/>
-      <c r="BT28" s="19"/>
-      <c r="BU28" s="19"/>
-      <c r="BV28" s="19"/>
-      <c r="BW28" s="19"/>
+      <c r="A28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="13"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="13"/>
+      <c r="BH28" s="13"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="13"/>
+      <c r="BK28" s="13"/>
+      <c r="BL28" s="13"/>
+      <c r="BM28" s="13"/>
+      <c r="BN28" s="13"/>
+      <c r="BO28" s="13"/>
+      <c r="BP28" s="13"/>
+      <c r="BQ28" s="13"/>
+      <c r="BR28" s="13"/>
+      <c r="BS28" s="13"/>
+      <c r="BT28" s="13"/>
+      <c r="BU28" s="13"/>
+      <c r="BV28" s="13"/>
+      <c r="BW28" s="13"/>
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
       <c r="BZ28" s="1"/>
@@ -3583,83 +3707,88 @@
       <c r="CB28" s="1"/>
     </row>
     <row r="29" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="14"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="14"/>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="13"/>
-      <c r="BE29" s="14"/>
-      <c r="BF29" s="13"/>
-      <c r="BG29" s="14"/>
-      <c r="BH29" s="13"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="13"/>
-      <c r="BK29" s="14"/>
-      <c r="BL29" s="13"/>
-      <c r="BM29" s="14"/>
-      <c r="BN29" s="13"/>
-      <c r="BO29" s="14"/>
-      <c r="BP29" s="13"/>
-      <c r="BQ29" s="13"/>
-      <c r="BR29" s="13"/>
-      <c r="BS29" s="14"/>
-      <c r="BT29" s="13"/>
-      <c r="BU29" s="14"/>
-      <c r="BV29" s="13"/>
-      <c r="BW29" s="14"/>
+      <c r="B29" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="16">
+        <v>44894</v>
+      </c>
+      <c r="E29" s="16">
+        <v>44912</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="19"/>
+      <c r="BO29" s="19"/>
+      <c r="BP29" s="19"/>
+      <c r="BQ29" s="19"/>
+      <c r="BR29" s="19"/>
+      <c r="BS29" s="19"/>
+      <c r="BT29" s="19"/>
+      <c r="BU29" s="19"/>
+      <c r="BV29" s="19"/>
+      <c r="BW29" s="19"/>
       <c r="BX29" s="1"/>
       <c r="BY29" s="1"/>
       <c r="BZ29" s="1"/>
@@ -3667,176 +3796,256 @@
       <c r="CB29" s="1"/>
     </row>
     <row r="30" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="16">
-        <v>44901</v>
-      </c>
-      <c r="E30" s="16">
-        <v>44907</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="18"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="18"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="17"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="17"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="17"/>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="40"/>
-      <c r="BF30" s="38"/>
-      <c r="BG30" s="40"/>
-      <c r="BH30" s="38"/>
-      <c r="BI30" s="40"/>
-      <c r="BJ30" s="18"/>
-      <c r="BK30" s="18"/>
-      <c r="BL30" s="18"/>
-      <c r="BM30" s="18"/>
-      <c r="BN30" s="18"/>
-      <c r="BO30" s="18"/>
-      <c r="BP30" s="17"/>
-      <c r="BQ30" s="18"/>
-      <c r="BR30" s="17"/>
-      <c r="BS30" s="18"/>
-      <c r="BT30" s="17"/>
-      <c r="BU30" s="18"/>
-      <c r="BV30" s="17"/>
-      <c r="BW30" s="18"/>
+      <c r="A30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="14"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="14"/>
+      <c r="BD30" s="13"/>
+      <c r="BE30" s="14"/>
+      <c r="BF30" s="13"/>
+      <c r="BG30" s="14"/>
+      <c r="BH30" s="13"/>
+      <c r="BI30" s="14"/>
+      <c r="BJ30" s="13"/>
+      <c r="BK30" s="14"/>
+      <c r="BL30" s="13"/>
+      <c r="BM30" s="14"/>
+      <c r="BN30" s="13"/>
+      <c r="BO30" s="14"/>
+      <c r="BP30" s="13"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="13"/>
+      <c r="BS30" s="14"/>
+      <c r="BT30" s="13"/>
+      <c r="BU30" s="14"/>
+      <c r="BV30" s="13"/>
+      <c r="BW30" s="14"/>
       <c r="BX30" s="1"/>
       <c r="BY30" s="1"/>
       <c r="BZ30" s="1"/>
       <c r="CA30" s="1"/>
       <c r="CB30" s="1"/>
     </row>
-    <row r="31" spans="1:80" ht="10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="27"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+    <row r="31" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="16">
+        <v>44901</v>
+      </c>
+      <c r="E31" s="16">
+        <v>44912</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="18"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="18"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="18"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="18"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="18"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="17"/>
+      <c r="BE31" s="40"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="40"/>
+      <c r="BH31" s="38"/>
+      <c r="BI31" s="40"/>
+      <c r="BJ31" s="37"/>
+      <c r="BK31" s="37"/>
+      <c r="BL31" s="37"/>
+      <c r="BM31" s="37"/>
+      <c r="BN31" s="18"/>
+      <c r="BO31" s="18"/>
+      <c r="BP31" s="17"/>
+      <c r="BQ31" s="18"/>
+      <c r="BR31" s="17"/>
+      <c r="BS31" s="18"/>
+      <c r="BT31" s="17"/>
+      <c r="BU31" s="18"/>
+      <c r="BV31" s="17"/>
+      <c r="BW31" s="18"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
     </row>
     <row r="32" spans="1:80" ht="10" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="27"/>
-      <c r="F32" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>61</v>
-      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="34"/>
     </row>
-    <row r="33" spans="1:6" ht="10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="27"/>
-      <c r="F33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="10" x14ac:dyDescent="0.2">
+      <c r="F33" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" ht="10" x14ac:dyDescent="0.2">
+      <c r="F34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="27"/>
     </row>
-    <row r="36" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="27"/>
     </row>
-    <row r="37" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="27"/>
     </row>
-    <row r="38" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="27"/>
     </row>
-    <row r="39" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="27"/>
     </row>
-    <row r="40" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="27"/>
     </row>
-    <row r="41" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="27"/>
     </row>
-    <row r="42" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="27"/>
     </row>
-    <row r="43" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="27"/>
     </row>
-    <row r="44" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="27"/>
     </row>
-    <row r="45" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="27"/>
     </row>
-    <row r="46" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="27"/>
     </row>
-    <row r="47" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="27"/>
     </row>
@@ -7424,176 +7633,176 @@
       <c r="A944" s="3"/>
       <c r="B944" s="27"/>
     </row>
-    <row r="945" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
       <c r="B945" s="27"/>
     </row>
-    <row r="946" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
       <c r="B946" s="27"/>
     </row>
-    <row r="947" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
       <c r="B947" s="27"/>
     </row>
-    <row r="948" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
       <c r="B948" s="27"/>
     </row>
-    <row r="949" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
       <c r="B949" s="27"/>
     </row>
-    <row r="950" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
       <c r="B950" s="27"/>
     </row>
-    <row r="951" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
       <c r="B951" s="27"/>
     </row>
-    <row r="952" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
       <c r="B952" s="27"/>
     </row>
-    <row r="953" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
       <c r="B953" s="27"/>
     </row>
-    <row r="954" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
       <c r="B954" s="27"/>
     </row>
-    <row r="955" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
       <c r="B955" s="27"/>
     </row>
-    <row r="956" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
       <c r="B956" s="27"/>
     </row>
-    <row r="957" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
       <c r="B957" s="27"/>
     </row>
-    <row r="958" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
       <c r="B958" s="27"/>
     </row>
-    <row r="959" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
       <c r="B959" s="27"/>
     </row>
-    <row r="960" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
       <c r="B960" s="27"/>
-      <c r="F960" s="2"/>
-      <c r="G960" s="2"/>
-      <c r="H960" s="2"/>
-      <c r="I960" s="2"/>
-      <c r="J960" s="2"/>
-      <c r="K960" s="2"/>
-      <c r="L960" s="2"/>
-      <c r="M960" s="2"/>
-      <c r="N960" s="2"/>
-      <c r="O960" s="2"/>
-      <c r="P960" s="2"/>
-      <c r="Q960" s="2"/>
-      <c r="R960" s="2"/>
-      <c r="S960" s="2"/>
-      <c r="T960" s="2"/>
-      <c r="U960" s="2"/>
-      <c r="V960" s="2"/>
-      <c r="W960" s="2"/>
-      <c r="X960" s="2"/>
-      <c r="Y960" s="2"/>
-      <c r="Z960" s="2"/>
-      <c r="AA960" s="2"/>
-      <c r="AB960" s="2"/>
-      <c r="AC960" s="2"/>
-      <c r="AD960" s="2"/>
-      <c r="AE960" s="2"/>
-      <c r="AF960" s="2"/>
-      <c r="AG960" s="2"/>
-      <c r="AH960" s="2"/>
-      <c r="AI960" s="2"/>
-      <c r="AJ960" s="2"/>
-      <c r="AK960" s="2"/>
-      <c r="AL960" s="2"/>
-      <c r="AM960" s="2"/>
-      <c r="AN960" s="2"/>
-      <c r="AO960" s="2"/>
-      <c r="AP960" s="2"/>
-      <c r="AQ960" s="2"/>
-      <c r="AR960" s="2"/>
-      <c r="AS960" s="2"/>
-      <c r="AT960" s="2"/>
-      <c r="AU960" s="2"/>
-      <c r="AV960" s="2"/>
-      <c r="AW960" s="2"/>
-      <c r="AX960" s="2"/>
-    </row>
-    <row r="961" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="961" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
       <c r="B961" s="27"/>
-    </row>
-    <row r="962" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F961" s="2"/>
+      <c r="G961" s="2"/>
+      <c r="H961" s="2"/>
+      <c r="I961" s="2"/>
+      <c r="J961" s="2"/>
+      <c r="K961" s="2"/>
+      <c r="L961" s="2"/>
+      <c r="M961" s="2"/>
+      <c r="N961" s="2"/>
+      <c r="O961" s="2"/>
+      <c r="P961" s="2"/>
+      <c r="Q961" s="2"/>
+      <c r="R961" s="2"/>
+      <c r="S961" s="2"/>
+      <c r="T961" s="2"/>
+      <c r="U961" s="2"/>
+      <c r="V961" s="2"/>
+      <c r="W961" s="2"/>
+      <c r="X961" s="2"/>
+      <c r="Y961" s="2"/>
+      <c r="Z961" s="2"/>
+      <c r="AA961" s="2"/>
+      <c r="AB961" s="2"/>
+      <c r="AC961" s="2"/>
+      <c r="AD961" s="2"/>
+      <c r="AE961" s="2"/>
+      <c r="AF961" s="2"/>
+      <c r="AG961" s="2"/>
+      <c r="AH961" s="2"/>
+      <c r="AI961" s="2"/>
+      <c r="AJ961" s="2"/>
+      <c r="AK961" s="2"/>
+      <c r="AL961" s="2"/>
+      <c r="AM961" s="2"/>
+      <c r="AN961" s="2"/>
+      <c r="AO961" s="2"/>
+      <c r="AP961" s="2"/>
+      <c r="AQ961" s="2"/>
+      <c r="AR961" s="2"/>
+      <c r="AS961" s="2"/>
+      <c r="AT961" s="2"/>
+      <c r="AU961" s="2"/>
+      <c r="AV961" s="2"/>
+      <c r="AW961" s="2"/>
+      <c r="AX961" s="2"/>
+    </row>
+    <row r="962" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
       <c r="B962" s="27"/>
     </row>
-    <row r="963" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
       <c r="B963" s="27"/>
     </row>
-    <row r="964" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
       <c r="B964" s="27"/>
     </row>
-    <row r="965" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
       <c r="B965" s="27"/>
     </row>
-    <row r="966" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
       <c r="B966" s="27"/>
     </row>
-    <row r="967" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
       <c r="B967" s="27"/>
     </row>
-    <row r="968" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
       <c r="B968" s="27"/>
     </row>
-    <row r="969" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
       <c r="B969" s="27"/>
     </row>
-    <row r="970" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
       <c r="B970" s="27"/>
     </row>
-    <row r="971" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
       <c r="B971" s="27"/>
     </row>
-    <row r="972" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
       <c r="B972" s="27"/>
     </row>
-    <row r="973" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
       <c r="B973" s="27"/>
     </row>
-    <row r="974" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
       <c r="B974" s="27"/>
     </row>
-    <row r="975" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
       <c r="B975" s="27"/>
     </row>
-    <row r="976" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:50" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
       <c r="B976" s="27"/>
     </row>
@@ -7622,19 +7831,32 @@
       <c r="B982" s="27"/>
     </row>
     <row r="983" spans="1:5" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="4"/>
-      <c r="B983" s="2"/>
-      <c r="C983" s="2"/>
-      <c r="D983" s="2"/>
-      <c r="E983" s="2"/>
+      <c r="A983" s="3"/>
+      <c r="B983" s="27"/>
+    </row>
+    <row r="984" spans="1:5" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A984" s="4"/>
+      <c r="B984" s="2"/>
+      <c r="C984" s="2"/>
+      <c r="D984" s="2"/>
+      <c r="E984" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="U2:Y2"/>
     <mergeCell ref="BD2:BH2"/>
     <mergeCell ref="BI2:BM2"/>
     <mergeCell ref="BN2:BR2"/>
@@ -7642,20 +7864,11 @@
     <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7692,42 +7905,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse/Gantt/Gantt Diagram.xlsx
+++ b/Analyse/Gantt/Gantt Diagram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanguy\Documents\GitHub\DataEngineeringP3\Analyse\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8577BAB-3DAF-4A8F-A1CD-065EF0F0CC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C21D8C-ADCA-45A4-939C-D1F81E22E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>nummer van de taak</t>
   </si>
@@ -240,6 +240,39 @@
   <si>
     <t>U</t>
   </si>
+  <si>
+    <t>===========&gt;</t>
+  </si>
+  <si>
+    <t>===========================&gt;</t>
+  </si>
+  <si>
+    <t>==============================================================================&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ===========================&gt;</t>
+  </si>
+  <si>
+    <t>==========================================================================================&gt;</t>
+  </si>
+  <si>
+    <t>=============================================================&gt;</t>
+  </si>
+  <si>
+    <t>================================================================================================================================================================================&gt;</t>
+  </si>
+  <si>
+    <t>===============================================================================================================================================================&gt;</t>
+  </si>
+  <si>
+    <t>==================================================================================================================================&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ===============================================================================================================================================================&gt;</t>
+  </si>
+  <si>
+    <t>=&gt;: vervroegd/verlaat</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +282,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -368,8 +401,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +469,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -640,12 +703,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -701,44 +817,6 @@
     <xf numFmtId="9" fontId="11" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,17 +832,78 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1140,11 +1279,11 @@
   </sheetPr>
   <dimension ref="A1:CB984"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="AY5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BH23" sqref="BH23"/>
+      <selection pane="bottomRight" activeCell="BK54" sqref="BK54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1164,137 +1303,137 @@
       </c>
     </row>
     <row r="2" spans="1:80" ht="23.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="56">
         <v>44830</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="47">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49">
         <f>F2+7</f>
         <v>44837</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="47">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="49">
         <f t="shared" ref="P2" si="0">K2+7</f>
         <v>44844</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="47">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="49">
         <f t="shared" ref="U2" si="1">P2+7</f>
         <v>44851</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="47">
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="49">
         <f t="shared" ref="Z2" si="2">U2+7</f>
         <v>44858</v>
       </c>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="47">
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="49">
         <f t="shared" ref="AE2" si="3">Z2+7</f>
         <v>44865</v>
       </c>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="47">
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="49">
         <f t="shared" ref="AJ2" si="4">AE2+7</f>
         <v>44872</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="47">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="49">
         <f t="shared" ref="AO2" si="5">AJ2+7</f>
         <v>44879</v>
       </c>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="47">
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="49">
         <f t="shared" ref="AT2" si="6">AO2+7</f>
         <v>44886</v>
       </c>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47">
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49">
         <f t="shared" ref="AY2" si="7">AT2+7</f>
         <v>44893</v>
       </c>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47">
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49">
         <f t="shared" ref="BD2" si="8">AY2+7</f>
         <v>44900</v>
       </c>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47">
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49">
         <f t="shared" ref="BI2" si="9">BD2+7</f>
         <v>44907</v>
       </c>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="47">
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49">
         <f t="shared" ref="BN2" si="10">BI2+7</f>
         <v>44914</v>
       </c>
-      <c r="BO2" s="47"/>
-      <c r="BP2" s="47"/>
-      <c r="BQ2" s="47"/>
-      <c r="BR2" s="47"/>
-      <c r="BS2" s="47">
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49">
         <f t="shared" ref="BS2" si="11">BN2+7</f>
         <v>44921</v>
       </c>
-      <c r="BT2" s="47"/>
-      <c r="BU2" s="47"/>
-      <c r="BV2" s="47"/>
-      <c r="BW2" s="47"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
     </row>
     <row r="3" spans="1:80" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1517,8 +1656,8 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
@@ -1614,55 +1753,57 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
+      <c r="L5" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="91"/>
+      <c r="BD5" s="69"/>
+      <c r="BE5" s="69"/>
+      <c r="BF5" s="69"/>
+      <c r="BG5" s="69"/>
+      <c r="BH5" s="69"/>
       <c r="BI5" s="19"/>
       <c r="BJ5" s="19"/>
       <c r="BK5" s="19"/>
@@ -1670,7 +1811,7 @@
       <c r="BM5" s="19"/>
       <c r="BN5" s="19"/>
       <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
+      <c r="BP5" s="62"/>
       <c r="BQ5" s="19"/>
       <c r="BR5" s="19"/>
       <c r="BS5" s="19"/>
@@ -1704,54 +1845,56 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="66"/>
+      <c r="BE6" s="66"/>
+      <c r="BF6" s="66"/>
+      <c r="BG6" s="66"/>
+      <c r="BH6" s="66"/>
       <c r="BI6" s="19"/>
       <c r="BJ6" s="19"/>
       <c r="BK6" s="19"/>
@@ -1759,7 +1902,7 @@
       <c r="BM6" s="19"/>
       <c r="BN6" s="19"/>
       <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
+      <c r="BP6" s="62"/>
       <c r="BQ6" s="19"/>
       <c r="BR6" s="19"/>
       <c r="BS6" s="19"/>
@@ -1774,13 +1917,13 @@
       <c r="CB6" s="1"/>
     </row>
     <row r="7" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="44">
         <v>44839</v>
       </c>
       <c r="E7" s="16">
@@ -1792,55 +1935,59 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
+      <c r="N7" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="70"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="70"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
       <c r="BI7" s="19"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="19"/>
@@ -1848,7 +1995,7 @@
       <c r="BM7" s="19"/>
       <c r="BN7" s="19"/>
       <c r="BO7" s="19"/>
-      <c r="BP7" s="19"/>
+      <c r="BP7" s="62"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="19"/>
       <c r="BS7" s="19"/>
@@ -1866,86 +2013,88 @@
       <c r="B8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="46">
         <v>44897</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="64">
         <v>44900</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="58"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="57"/>
-      <c r="BR8" s="57"/>
-      <c r="BS8" s="57"/>
-      <c r="BT8" s="57"/>
-      <c r="BU8" s="57"/>
-      <c r="BV8" s="57"/>
-      <c r="BW8" s="57"/>
-      <c r="BX8" s="1"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="90"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="79"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="79"/>
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="78"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="69"/>
+      <c r="BN8" s="78"/>
+      <c r="BO8" s="78"/>
+      <c r="BP8" s="63"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="17"/>
+      <c r="BS8" s="18"/>
+      <c r="BT8" s="17"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="17"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="68"/>
       <c r="BY8" s="1"/>
       <c r="BZ8" s="1"/>
       <c r="CA8" s="1"/>
@@ -1956,9 +2105,9 @@
         <v>35</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="53"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -2093,11 +2242,11 @@
       <c r="AV10" s="19"/>
       <c r="AW10" s="19"/>
       <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
       <c r="BD10" s="19"/>
       <c r="BE10" s="19"/>
       <c r="BF10" s="19"/>
@@ -2110,7 +2259,7 @@
       <c r="BM10" s="19"/>
       <c r="BN10" s="19"/>
       <c r="BO10" s="19"/>
-      <c r="BP10" s="19"/>
+      <c r="BP10" s="62"/>
       <c r="BQ10" s="19"/>
       <c r="BR10" s="19"/>
       <c r="BS10" s="19"/>
@@ -2148,15 +2297,15 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="37"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
@@ -2182,11 +2331,11 @@
       <c r="AV11" s="19"/>
       <c r="AW11" s="19"/>
       <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
       <c r="BD11" s="19"/>
       <c r="BE11" s="19"/>
       <c r="BF11" s="19"/>
@@ -2199,7 +2348,7 @@
       <c r="BM11" s="19"/>
       <c r="BN11" s="19"/>
       <c r="BO11" s="19"/>
-      <c r="BP11" s="19"/>
+      <c r="BP11" s="62"/>
       <c r="BQ11" s="19"/>
       <c r="BR11" s="19"/>
       <c r="BS11" s="19"/>
@@ -2239,13 +2388,13 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
@@ -2271,11 +2420,11 @@
       <c r="AV12" s="19"/>
       <c r="AW12" s="19"/>
       <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
       <c r="BD12" s="19"/>
       <c r="BE12" s="19"/>
       <c r="BF12" s="19"/>
@@ -2288,7 +2437,7 @@
       <c r="BM12" s="19"/>
       <c r="BN12" s="19"/>
       <c r="BO12" s="19"/>
-      <c r="BP12" s="19"/>
+      <c r="BP12" s="62"/>
       <c r="BQ12" s="19"/>
       <c r="BR12" s="19"/>
       <c r="BS12" s="19"/>
@@ -2326,25 +2475,25 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
       <c r="AJ13" s="21"/>
       <c r="AK13" s="21"/>
       <c r="AL13" s="21"/>
@@ -2360,11 +2509,11 @@
       <c r="AV13" s="19"/>
       <c r="AW13" s="19"/>
       <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
       <c r="BD13" s="19"/>
       <c r="BE13" s="19"/>
       <c r="BF13" s="19"/>
@@ -2377,7 +2526,7 @@
       <c r="BM13" s="19"/>
       <c r="BN13" s="19"/>
       <c r="BO13" s="19"/>
-      <c r="BP13" s="19"/>
+      <c r="BP13" s="62"/>
       <c r="BQ13" s="19"/>
       <c r="BR13" s="19"/>
       <c r="BS13" s="19"/>
@@ -2409,51 +2558,51 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
       <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
       <c r="AT14" s="17"/>
       <c r="AU14" s="17"/>
       <c r="AV14" s="17"/>
       <c r="AW14" s="17"/>
       <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="72"/>
       <c r="BD14" s="17"/>
       <c r="BE14" s="17"/>
       <c r="BF14" s="17"/>
@@ -2466,7 +2615,7 @@
       <c r="BM14" s="17"/>
       <c r="BN14" s="17"/>
       <c r="BO14" s="17"/>
-      <c r="BP14" s="17"/>
+      <c r="BP14" s="63"/>
       <c r="BQ14" s="17"/>
       <c r="BR14" s="17"/>
       <c r="BS14" s="17"/>
@@ -2498,51 +2647,53 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
       <c r="U15" s="38"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="94" t="s">
+        <v>69</v>
+      </c>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
       <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
       <c r="AT15" s="17"/>
       <c r="AU15" s="17"/>
       <c r="AV15" s="17"/>
       <c r="AW15" s="17"/>
       <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="72"/>
       <c r="BD15" s="17"/>
       <c r="BE15" s="17"/>
       <c r="BF15" s="17"/>
@@ -2555,7 +2706,7 @@
       <c r="BM15" s="17"/>
       <c r="BN15" s="17"/>
       <c r="BO15" s="17"/>
-      <c r="BP15" s="17"/>
+      <c r="BP15" s="63"/>
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
       <c r="BS15" s="17"/>
@@ -2570,7 +2721,7 @@
       <c r="CB15" s="1"/>
     </row>
     <row r="16" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -2587,52 +2738,54 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
+      <c r="U16" s="38"/>
       <c r="V16" s="38"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="80"/>
       <c r="AU16" s="17"/>
       <c r="AV16" s="17"/>
       <c r="AW16" s="17"/>
       <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="70"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="19"/>
       <c r="BE16" s="17"/>
       <c r="BF16" s="17"/>
       <c r="BG16" s="17"/>
@@ -2644,7 +2797,7 @@
       <c r="BM16" s="17"/>
       <c r="BN16" s="17"/>
       <c r="BO16" s="17"/>
-      <c r="BP16" s="17"/>
+      <c r="BP16" s="63"/>
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
       <c r="BS16" s="17"/>
@@ -2664,8 +2817,8 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
       <c r="H17" s="24"/>
@@ -2760,51 +2913,53 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="37"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="19"/>
       <c r="AL18" s="19"/>
       <c r="AM18" s="19"/>
       <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
       <c r="AU18" s="19"/>
       <c r="AV18" s="19"/>
       <c r="AW18" s="19"/>
       <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
       <c r="BD18" s="19"/>
       <c r="BE18" s="19"/>
       <c r="BF18" s="19"/>
@@ -2817,7 +2972,7 @@
       <c r="BM18" s="19"/>
       <c r="BN18" s="19"/>
       <c r="BO18" s="19"/>
-      <c r="BP18" s="19"/>
+      <c r="BP18" s="62"/>
       <c r="BQ18" s="19"/>
       <c r="BR18" s="19"/>
       <c r="BS18" s="19"/>
@@ -2849,51 +3004,53 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
       <c r="X19" s="37"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="AA19" s="19"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
       <c r="AJ19" s="19"/>
       <c r="AK19" s="19"/>
       <c r="AL19" s="19"/>
       <c r="AM19" s="19"/>
       <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
       <c r="AU19" s="19"/>
       <c r="AV19" s="19"/>
       <c r="AW19" s="19"/>
       <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
       <c r="BD19" s="19"/>
       <c r="BE19" s="19"/>
       <c r="BF19" s="19"/>
@@ -2906,7 +3063,7 @@
       <c r="BM19" s="19"/>
       <c r="BN19" s="19"/>
       <c r="BO19" s="19"/>
-      <c r="BP19" s="19"/>
+      <c r="BP19" s="62"/>
       <c r="BQ19" s="19"/>
       <c r="BR19" s="19"/>
       <c r="BS19" s="19"/>
@@ -2978,11 +3135,13 @@
       <c r="AV20" s="37"/>
       <c r="AW20" s="37"/>
       <c r="AX20" s="37"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="37"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
+      <c r="AY20" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="66"/>
       <c r="BD20" s="19"/>
       <c r="BE20" s="19"/>
       <c r="BF20" s="19"/>
@@ -2995,7 +3154,7 @@
       <c r="BM20" s="19"/>
       <c r="BN20" s="19"/>
       <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
+      <c r="BP20" s="62"/>
       <c r="BQ20" s="19"/>
       <c r="BR20" s="19"/>
       <c r="BS20" s="19"/>
@@ -3015,8 +3174,8 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
       <c r="H21" s="22"/>
@@ -3111,51 +3270,53 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
       <c r="AJ22" s="19"/>
       <c r="AK22" s="19"/>
       <c r="AL22" s="19"/>
       <c r="AM22" s="19"/>
       <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
       <c r="AT22" s="19"/>
       <c r="AU22" s="19"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
       <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="73"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="66"/>
       <c r="BD22" s="19"/>
       <c r="BE22" s="19"/>
       <c r="BF22" s="19"/>
@@ -3168,7 +3329,7 @@
       <c r="BM22" s="19"/>
       <c r="BN22" s="19"/>
       <c r="BO22" s="19"/>
-      <c r="BP22" s="19"/>
+      <c r="BP22" s="62"/>
       <c r="BQ22" s="19"/>
       <c r="BR22" s="19"/>
       <c r="BS22" s="19"/>
@@ -3200,64 +3361,66 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
       <c r="AJ23" s="19"/>
       <c r="AK23" s="19"/>
       <c r="AL23" s="19"/>
       <c r="AM23" s="19"/>
       <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
+      <c r="AO23" s="37"/>
       <c r="AP23" s="37"/>
       <c r="AQ23" s="37"/>
       <c r="AR23" s="37"/>
       <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="37"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="37"/>
-      <c r="BF23" s="37"/>
-      <c r="BG23" s="37"/>
-      <c r="BH23" s="37"/>
-      <c r="BI23" s="19"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="19"/>
-      <c r="BL23" s="19"/>
-      <c r="BM23" s="19"/>
-      <c r="BN23" s="19"/>
+      <c r="AT23" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU23" s="69"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="69"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
+      <c r="BC23" s="69"/>
+      <c r="BD23" s="69"/>
+      <c r="BE23" s="69"/>
+      <c r="BF23" s="69"/>
+      <c r="BG23" s="69"/>
+      <c r="BH23" s="69"/>
+      <c r="BI23" s="66"/>
+      <c r="BJ23" s="66"/>
+      <c r="BK23" s="66"/>
+      <c r="BL23" s="66"/>
+      <c r="BM23" s="66"/>
+      <c r="BN23" s="69"/>
       <c r="BO23" s="19"/>
-      <c r="BP23" s="19"/>
+      <c r="BP23" s="62"/>
       <c r="BQ23" s="19"/>
       <c r="BR23" s="19"/>
       <c r="BS23" s="19"/>
@@ -3277,8 +3440,8 @@
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
@@ -3356,7 +3519,7 @@
       <c r="CB24" s="1"/>
     </row>
     <row r="25" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -3423,14 +3586,14 @@
       <c r="BF25" s="35"/>
       <c r="BG25" s="35"/>
       <c r="BH25" s="35"/>
-      <c r="BI25" s="19"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="19"/>
-      <c r="BL25" s="19"/>
-      <c r="BM25" s="19"/>
-      <c r="BN25" s="19"/>
+      <c r="BI25" s="66"/>
+      <c r="BJ25" s="66"/>
+      <c r="BK25" s="66"/>
+      <c r="BL25" s="66"/>
+      <c r="BM25" s="66"/>
+      <c r="BN25" s="69"/>
       <c r="BO25" s="19"/>
-      <c r="BP25" s="19"/>
+      <c r="BP25" s="62"/>
       <c r="BQ25" s="19"/>
       <c r="BR25" s="19"/>
       <c r="BS25" s="19"/>
@@ -3445,7 +3608,7 @@
       <c r="CB25" s="1"/>
     </row>
     <row r="26" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -3512,14 +3675,14 @@
       <c r="BF26" s="37"/>
       <c r="BG26" s="37"/>
       <c r="BH26" s="37"/>
-      <c r="BI26" s="19"/>
-      <c r="BJ26" s="19"/>
-      <c r="BK26" s="19"/>
-      <c r="BL26" s="19"/>
-      <c r="BM26" s="19"/>
+      <c r="BI26" s="66"/>
+      <c r="BJ26" s="66"/>
+      <c r="BK26" s="66"/>
+      <c r="BL26" s="66"/>
+      <c r="BM26" s="66"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
-      <c r="BP26" s="19"/>
+      <c r="BP26" s="62"/>
       <c r="BQ26" s="19"/>
       <c r="BR26" s="19"/>
       <c r="BS26" s="19"/>
@@ -3534,7 +3697,7 @@
       <c r="CB26" s="1"/>
     </row>
     <row r="27" spans="1:80" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -3544,7 +3707,7 @@
         <v>44897</v>
       </c>
       <c r="E27" s="16">
-        <v>44918</v>
+        <v>44916</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -3591,10 +3754,10 @@
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
       <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19"/>
+      <c r="AY27" s="73"/>
+      <c r="AZ27" s="73"/>
+      <c r="BA27" s="73"/>
+      <c r="BB27" s="73"/>
       <c r="BC27" s="37"/>
       <c r="BD27" s="37"/>
       <c r="BE27" s="37"/>
@@ -3608,8 +3771,7 @@
       <c r="BM27" s="37"/>
       <c r="BN27" s="37"/>
       <c r="BO27" s="37"/>
-      <c r="BP27" s="37"/>
-      <c r="BQ27" s="37"/>
+      <c r="BP27" s="62"/>
       <c r="BR27" s="19"/>
       <c r="BS27" s="19"/>
       <c r="BT27" s="19"/>
@@ -3628,8 +3790,8 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
@@ -3717,7 +3879,7 @@
         <v>44894</v>
       </c>
       <c r="E29" s="16">
-        <v>44912</v>
+        <v>44916</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -3779,9 +3941,9 @@
       <c r="BK29" s="37"/>
       <c r="BL29" s="37"/>
       <c r="BM29" s="37"/>
-      <c r="BN29" s="19"/>
-      <c r="BO29" s="19"/>
-      <c r="BP29" s="19"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="62"/>
       <c r="BQ29" s="19"/>
       <c r="BR29" s="19"/>
       <c r="BS29" s="19"/>
@@ -3801,8 +3963,8 @@
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
@@ -3890,7 +4052,7 @@
         <v>44901</v>
       </c>
       <c r="E31" s="16">
-        <v>44912</v>
+        <v>44916</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -3937,12 +4099,12 @@
       <c r="AV31" s="17"/>
       <c r="AW31" s="18"/>
       <c r="AX31" s="17"/>
-      <c r="AY31" s="18"/>
-      <c r="AZ31" s="17"/>
-      <c r="BA31" s="18"/>
-      <c r="BB31" s="17"/>
-      <c r="BC31" s="18"/>
-      <c r="BD31" s="17"/>
+      <c r="AY31" s="75"/>
+      <c r="AZ31" s="72"/>
+      <c r="BA31" s="75"/>
+      <c r="BB31" s="72"/>
+      <c r="BC31" s="75"/>
+      <c r="BD31" s="38"/>
       <c r="BE31" s="40"/>
       <c r="BF31" s="38"/>
       <c r="BG31" s="40"/>
@@ -3952,9 +4114,9 @@
       <c r="BK31" s="37"/>
       <c r="BL31" s="37"/>
       <c r="BM31" s="37"/>
-      <c r="BN31" s="18"/>
-      <c r="BO31" s="18"/>
-      <c r="BP31" s="17"/>
+      <c r="BN31" s="40"/>
+      <c r="BO31" s="40"/>
+      <c r="BP31" s="63"/>
       <c r="BQ31" s="18"/>
       <c r="BR31" s="17"/>
       <c r="BS31" s="18"/>
@@ -3996,6 +4158,9 @@
     <row r="35" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="27"/>
+      <c r="F35" s="95" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
@@ -7843,6 +8008,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AT2:AX2"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D21:E21"/>
@@ -7857,18 +8034,6 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7881,7 +8046,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
